--- a/src/assets/zxsj_mb/sjzxtb_k10_fdyxx.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k10_fdyxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>年度</t>
   </si>
@@ -37,70 +37,37 @@
     <t>学历</t>
   </si>
   <si>
-    <t>入职年月</t>
-  </si>
-  <si>
-    <t>殷**</t>
-  </si>
-  <si>
-    <t>1973-08-09</t>
-  </si>
-  <si>
-    <t>女</t>
+    <t>赵**</t>
+  </si>
+  <si>
+    <t>1973-08-10</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>兼职</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>钟**</t>
+  </si>
+  <si>
+    <t>1973-08-11</t>
   </si>
   <si>
     <t>专职</t>
   </si>
   <si>
-    <t>本科</t>
-  </si>
-  <si>
-    <t>2013-08-09</t>
-  </si>
-  <si>
-    <t>赵**</t>
-  </si>
-  <si>
-    <t>1973-08-10</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>兼职</t>
-  </si>
-  <si>
-    <t>2013-08-10</t>
-  </si>
-  <si>
-    <t>钟**</t>
-  </si>
-  <si>
-    <t>1973-08-11</t>
-  </si>
-  <si>
     <t>专科</t>
   </si>
   <si>
-    <t>2013-08-11</t>
-  </si>
-  <si>
     <t>周**</t>
   </si>
   <si>
     <t>1973-08-12</t>
-  </si>
-  <si>
-    <t>2013-08-12</t>
-  </si>
-  <si>
-    <t>朱**</t>
-  </si>
-  <si>
-    <t>1973-08-13</t>
-  </si>
-  <si>
-    <t>2013-08-13</t>
   </si>
 </sst>
 </file>
@@ -108,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -163,16 +130,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,40 +177,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +216,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -264,13 +246,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -280,14 +255,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,21 +474,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +517,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -593,21 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,145 +583,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.4166666666667" customWidth="1"/>
@@ -1114,10 +1081,9 @@
     <col min="5" max="5" width="9.41666666666667" customWidth="1"/>
     <col min="6" max="6" width="12.9166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,138 +1105,74 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:8">
+    <row r="2" ht="25" customHeight="1" spans="1:7">
       <c r="A2" s="4">
         <v>2018</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3333</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>2222</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:8">
+    <row r="3" ht="25" customHeight="1" spans="1:7">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4444</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
-        <v>3333</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:8">
+    <row r="4" ht="25" customHeight="1" spans="1:7">
       <c r="A4" s="4">
         <v>2018</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
-        <v>4444</v>
+        <v>5555</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5555</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:8">
-      <c r="A6" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6666</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
